--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf2</t>
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>9.124229344756113</v>
+        <v>14.58139595037222</v>
       </c>
       <c r="R2">
-        <v>82.11806410280501</v>
+        <v>131.23256355335</v>
       </c>
       <c r="S2">
-        <v>0.009323453588740134</v>
+        <v>0.01299021651299118</v>
       </c>
       <c r="T2">
-        <v>0.009323453588740132</v>
+        <v>0.01299021651299118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>66.414995309164</v>
+        <v>79.58556242736802</v>
       </c>
       <c r="R3">
-        <v>597.734957782476</v>
+        <v>716.2700618463122</v>
       </c>
       <c r="S3">
-        <v>0.06786514268377762</v>
+        <v>0.07090087195755053</v>
       </c>
       <c r="T3">
-        <v>0.06786514268377759</v>
+        <v>0.07090087195755052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.7738757441493335</v>
+        <v>1.737074944513112</v>
       </c>
       <c r="R4">
-        <v>6.964881697344001</v>
+        <v>15.633674500618</v>
       </c>
       <c r="S4">
-        <v>0.0007907730408130053</v>
+        <v>0.001547518475276123</v>
       </c>
       <c r="T4">
-        <v>0.0007907730408130049</v>
+        <v>0.001547518475276123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>14.41486131846344</v>
+        <v>20.44253571133489</v>
       </c>
       <c r="R5">
-        <v>129.733751866171</v>
+        <v>183.982821402014</v>
       </c>
       <c r="S5">
-        <v>0.01472960459592785</v>
+        <v>0.01821176558599766</v>
       </c>
       <c r="T5">
-        <v>0.01472960459592784</v>
+        <v>0.01821176558599766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H6">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I6">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J6">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.5466204451895555</v>
+        <v>0.8541940086786668</v>
       </c>
       <c r="R6">
-        <v>4.919584006706</v>
+        <v>7.687746078108001</v>
       </c>
       <c r="S6">
-        <v>0.000558555704686478</v>
+        <v>0.0007609809893786264</v>
       </c>
       <c r="T6">
-        <v>0.0005585557046864778</v>
+        <v>0.0007609809893786264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>76.08116063990002</v>
+        <v>101.4639804815</v>
       </c>
       <c r="R7">
-        <v>684.7304457591001</v>
+        <v>913.1758243335001</v>
       </c>
       <c r="S7">
-        <v>0.07774236523452391</v>
+        <v>0.09039183074175766</v>
       </c>
       <c r="T7">
-        <v>0.07774236523452389</v>
+        <v>0.09039183074175766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
-        <v>553.7925161776801</v>
+        <v>553.7925161776802</v>
       </c>
       <c r="R8">
-        <v>4984.13264559912</v>
+        <v>4984.132645599121</v>
       </c>
       <c r="S8">
-        <v>0.5658843752477193</v>
+        <v>0.4933604925692041</v>
       </c>
       <c r="T8">
-        <v>0.5658843752477192</v>
+        <v>0.4933604925692041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>6.452858929920001</v>
+        <v>12.08735699002</v>
       </c>
       <c r="R9">
-        <v>58.07573036928002</v>
+        <v>108.78621291018</v>
       </c>
       <c r="S9">
-        <v>0.006593754768162789</v>
+        <v>0.01076833692086724</v>
       </c>
       <c r="T9">
-        <v>0.006593754768162788</v>
+        <v>0.01076833692086724</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>120.19638460778</v>
+        <v>142.24845491246</v>
       </c>
       <c r="R10">
-        <v>1081.76746147002</v>
+        <v>1280.23609421214</v>
       </c>
       <c r="S10">
-        <v>0.122820829144223</v>
+        <v>0.1267257424625486</v>
       </c>
       <c r="T10">
-        <v>0.1228208291442229</v>
+        <v>0.1267257424625486</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>4.55792114908</v>
+        <v>5.943870156120001</v>
       </c>
       <c r="R11">
-        <v>41.02129034172</v>
+        <v>53.49483140508001</v>
       </c>
       <c r="S11">
-        <v>0.004657441707009215</v>
+        <v>0.005295251601142791</v>
       </c>
       <c r="T11">
-        <v>0.004657441707009214</v>
+        <v>0.005295251601142791</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N12">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O12">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P12">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q12">
-        <v>3.060371040015</v>
+        <v>5.930943483694445</v>
       </c>
       <c r="R12">
-        <v>27.543339360135</v>
+        <v>53.37849135325001</v>
       </c>
       <c r="S12">
-        <v>0.003127193133555205</v>
+        <v>0.005283735538197103</v>
       </c>
       <c r="T12">
-        <v>0.003127193133555205</v>
+        <v>0.005283735538197103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
         <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P13">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q13">
-        <v>22.276350208548</v>
+        <v>32.37121291276001</v>
       </c>
       <c r="R13">
-        <v>200.487151876932</v>
+        <v>291.34091621484</v>
       </c>
       <c r="S13">
-        <v>0.02276274624938972</v>
+        <v>0.02883873848265907</v>
       </c>
       <c r="T13">
-        <v>0.02276274624938972</v>
+        <v>0.02883873848265906</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H14">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I14">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J14">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N14">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O14">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P14">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q14">
-        <v>0.259566789312</v>
+        <v>0.7065505496122223</v>
       </c>
       <c r="R14">
-        <v>2.336101103808</v>
+        <v>6.358954946510001</v>
       </c>
       <c r="S14">
-        <v>0.0002652343361710411</v>
+        <v>0.0006294489668941054</v>
       </c>
       <c r="T14">
-        <v>0.0002652343361710411</v>
+        <v>0.0006294489668941054</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H15">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I15">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J15">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N15">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q15">
-        <v>4.834909608033</v>
+        <v>8.314946276747779</v>
       </c>
       <c r="R15">
-        <v>43.514186472297</v>
+        <v>74.83451649073001</v>
       </c>
       <c r="S15">
-        <v>0.004940478108669718</v>
+        <v>0.007407586543597446</v>
       </c>
       <c r="T15">
-        <v>0.004940478108669718</v>
+        <v>0.007407586543597446</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H16">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I16">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J16">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N16">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O16">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P16">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q16">
-        <v>0.183342758838</v>
+        <v>0.3474411096733334</v>
       </c>
       <c r="R16">
-        <v>1.650084829542</v>
+        <v>3.12696998706</v>
       </c>
       <c r="S16">
-        <v>0.0001873459815913208</v>
+        <v>0.0003095269654244114</v>
       </c>
       <c r="T16">
-        <v>0.0001873459815913208</v>
+        <v>0.0003095269654244114</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H17">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N17">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O17">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P17">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q17">
-        <v>9.562812140323334</v>
+        <v>13.010732872375</v>
       </c>
       <c r="R17">
-        <v>86.06530926291001</v>
+        <v>117.096595851375</v>
       </c>
       <c r="S17">
-        <v>0.009771612680843731</v>
+        <v>0.01159095038500265</v>
       </c>
       <c r="T17">
-        <v>0.009771612680843729</v>
+        <v>0.01159095038500265</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H18">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N18">
         <v>223.948188</v>
       </c>
       <c r="O18">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P18">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q18">
-        <v>69.607426495368</v>
+        <v>71.01285067386002</v>
       </c>
       <c r="R18">
-        <v>626.4668384583119</v>
+        <v>639.1156560647401</v>
       </c>
       <c r="S18">
-        <v>0.07112727944899667</v>
+        <v>0.06326364832268376</v>
       </c>
       <c r="T18">
-        <v>0.07112727944899666</v>
+        <v>0.06326364832268375</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H19">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N19">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O19">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P19">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q19">
-        <v>0.811074347392</v>
+        <v>1.549962579665</v>
       </c>
       <c r="R19">
-        <v>7.299669126528001</v>
+        <v>13.949663216985</v>
       </c>
       <c r="S19">
-        <v>0.0008287838620883697</v>
+        <v>0.001380824549680288</v>
       </c>
       <c r="T19">
-        <v>0.0008287838620883695</v>
+        <v>0.001380824549680288</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H20">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N20">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O20">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P20">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q20">
-        <v>15.10775382871133</v>
+        <v>18.240528703795</v>
       </c>
       <c r="R20">
-        <v>135.969784458402</v>
+        <v>164.164758334155</v>
       </c>
       <c r="S20">
-        <v>0.01543762616325009</v>
+        <v>0.01625005026817606</v>
       </c>
       <c r="T20">
-        <v>0.01543762616325009</v>
+        <v>0.01625005026817606</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H21">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N21">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O21">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P21">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q21">
-        <v>0.5728953571746666</v>
+        <v>0.76218285999</v>
       </c>
       <c r="R21">
-        <v>5.156058214571999</v>
+        <v>6.85964573991</v>
       </c>
       <c r="S21">
-        <v>0.0005854043198609975</v>
+        <v>0.0006790104601410404</v>
       </c>
       <c r="T21">
-        <v>0.0005854043198609973</v>
+        <v>0.0006790104601410404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.023536</v>
+      </c>
+      <c r="I22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.67700833333333</v>
+      </c>
+      <c r="N22">
+        <v>41.031025</v>
+      </c>
+      <c r="O22">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="P22">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="Q22">
+        <v>4.666303467155556</v>
+      </c>
+      <c r="R22">
+        <v>41.9967312044</v>
+      </c>
+      <c r="S22">
+        <v>0.004157098028198373</v>
+      </c>
+      <c r="T22">
+        <v>0.004157098028198373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.023536</v>
+      </c>
+      <c r="I23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N23">
+        <v>223.948188</v>
+      </c>
+      <c r="O23">
+        <v>0.679053278848249</v>
+      </c>
+      <c r="P23">
+        <v>0.6790532788482488</v>
+      </c>
+      <c r="Q23">
+        <v>25.468781394752</v>
+      </c>
+      <c r="R23">
+        <v>229.219032552768</v>
+      </c>
+      <c r="S23">
+        <v>0.02268952751615147</v>
+      </c>
+      <c r="T23">
+        <v>0.02268952751615146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.023536</v>
+      </c>
+      <c r="I24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.629335666666667</v>
+      </c>
+      <c r="N24">
+        <v>4.888007</v>
+      </c>
+      <c r="O24">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="P24">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="Q24">
+        <v>0.5558945703057778</v>
+      </c>
+      <c r="R24">
+        <v>5.003051132752</v>
+      </c>
+      <c r="S24">
+        <v>0.0004952331622600178</v>
+      </c>
+      <c r="T24">
+        <v>0.0004952331622600178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.023536</v>
+      </c>
+      <c r="I25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.17462033333333</v>
+      </c>
+      <c r="N25">
+        <v>57.523861</v>
+      </c>
+      <c r="O25">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="P25">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="Q25">
+        <v>6.541971399166223</v>
+      </c>
+      <c r="R25">
+        <v>58.877742592496</v>
+      </c>
+      <c r="S25">
+        <v>0.005828085677544182</v>
+      </c>
+      <c r="T25">
+        <v>0.005828085677544182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.023536</v>
+      </c>
+      <c r="I26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.801214</v>
+      </c>
+      <c r="N26">
+        <v>2.403642</v>
+      </c>
+      <c r="O26">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="P26">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="Q26">
+        <v>0.2733571242346667</v>
+      </c>
+      <c r="R26">
+        <v>2.460214118112</v>
+      </c>
+      <c r="S26">
+        <v>0.0002435273166754863</v>
+      </c>
+      <c r="T26">
+        <v>0.0002435273166754863</v>
       </c>
     </row>
   </sheetData>
